--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.017531666666668</v>
+        <v>3.872992333333334</v>
       </c>
       <c r="H2">
-        <v>27.052595</v>
+        <v>11.618977</v>
       </c>
       <c r="I2">
-        <v>0.09025733169883476</v>
+        <v>0.03968168904181824</v>
       </c>
       <c r="J2">
-        <v>0.09025733169883478</v>
+        <v>0.03968168904181824</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.93702966666667</v>
+        <v>9.873811666666667</v>
       </c>
       <c r="N2">
-        <v>80.81108900000001</v>
+        <v>29.621435</v>
       </c>
       <c r="O2">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="P2">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="Q2">
-        <v>242.9055180251062</v>
+        <v>38.24119688577723</v>
       </c>
       <c r="R2">
-        <v>2186.149662225956</v>
+        <v>344.170771971995</v>
       </c>
       <c r="S2">
-        <v>0.005074089246274185</v>
+        <v>0.0007529747163427492</v>
       </c>
       <c r="T2">
-        <v>0.005074089246274185</v>
+        <v>0.000752974716342749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.017531666666668</v>
+        <v>3.872992333333334</v>
       </c>
       <c r="H3">
-        <v>27.052595</v>
+        <v>11.618977</v>
       </c>
       <c r="I3">
-        <v>0.09025733169883476</v>
+        <v>0.03968168904181824</v>
       </c>
       <c r="J3">
-        <v>0.09025733169883478</v>
+        <v>0.03968168904181824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>575.339554</v>
       </c>
       <c r="O3">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="P3">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="Q3">
-        <v>1729.380882426959</v>
+        <v>742.7618939018066</v>
       </c>
       <c r="R3">
-        <v>15564.42794184263</v>
+        <v>6684.857045116259</v>
       </c>
       <c r="S3">
-        <v>0.03612529270466316</v>
+        <v>0.0146250894824614</v>
       </c>
       <c r="T3">
-        <v>0.03612529270466316</v>
+        <v>0.01462508948246139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.017531666666668</v>
+        <v>3.872992333333334</v>
       </c>
       <c r="H4">
-        <v>27.052595</v>
+        <v>11.618977</v>
       </c>
       <c r="I4">
-        <v>0.09025733169883476</v>
+        <v>0.03968168904181824</v>
       </c>
       <c r="J4">
-        <v>0.09025733169883478</v>
+        <v>0.03968168904181824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.30755500000002</v>
+        <v>140.35703</v>
       </c>
       <c r="N4">
-        <v>264.9226650000001</v>
+        <v>421.07109</v>
       </c>
       <c r="O4">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="P4">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="Q4">
-        <v>796.3161736184087</v>
+        <v>543.6017011194368</v>
       </c>
       <c r="R4">
-        <v>7166.845562565677</v>
+        <v>4892.415310074931</v>
       </c>
       <c r="S4">
-        <v>0.01663436617678545</v>
+        <v>0.01070359638393219</v>
       </c>
       <c r="T4">
-        <v>0.01663436617678545</v>
+        <v>0.01070359638393218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.017531666666668</v>
+        <v>3.872992333333334</v>
       </c>
       <c r="H5">
-        <v>27.052595</v>
+        <v>11.618977</v>
       </c>
       <c r="I5">
-        <v>0.09025733169883476</v>
+        <v>0.03968168904181824</v>
       </c>
       <c r="J5">
-        <v>0.09025733169883478</v>
+        <v>0.03968168904181824</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>172.1284333333333</v>
+        <v>178.3381523333333</v>
       </c>
       <c r="N5">
-        <v>516.3852999999999</v>
+        <v>535.014457</v>
       </c>
       <c r="O5">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="P5">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="Q5">
-        <v>1552.173598317056</v>
+        <v>690.7022967278323</v>
       </c>
       <c r="R5">
-        <v>13969.5623848535</v>
+        <v>6216.320670550489</v>
       </c>
       <c r="S5">
-        <v>0.03242358357111198</v>
+        <v>0.01360002845908191</v>
       </c>
       <c r="T5">
-        <v>0.03242358357111198</v>
+        <v>0.01360002845908191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>221.960877</v>
       </c>
       <c r="I6">
-        <v>0.7405425061645015</v>
+        <v>0.7580514618940433</v>
       </c>
       <c r="J6">
-        <v>0.7405425061645016</v>
+        <v>0.7580514618940433</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.93702966666667</v>
+        <v>9.873811666666667</v>
       </c>
       <c r="N6">
-        <v>80.81108900000001</v>
+        <v>29.621435</v>
       </c>
       <c r="O6">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="P6">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="Q6">
-        <v>1992.988909529451</v>
+        <v>730.5332989553883</v>
       </c>
       <c r="R6">
-        <v>17936.90018576505</v>
+        <v>6574.799690598495</v>
       </c>
       <c r="S6">
-        <v>0.04163183972107987</v>
+        <v>0.01438430667332097</v>
       </c>
       <c r="T6">
-        <v>0.04163183972107988</v>
+        <v>0.01438430667332096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>221.960877</v>
       </c>
       <c r="I7">
-        <v>0.7405425061645015</v>
+        <v>0.7580514618940433</v>
       </c>
       <c r="J7">
-        <v>0.7405425061645016</v>
+        <v>0.7580514618940433</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>575.339554</v>
       </c>
       <c r="O7">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="P7">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="Q7">
         <v>14189.20799762543</v>
@@ -883,10 +883,10 @@
         <v>127702.8719786289</v>
       </c>
       <c r="S7">
-        <v>0.2964004617896633</v>
+        <v>0.2793875646479554</v>
       </c>
       <c r="T7">
-        <v>0.2964004617896633</v>
+        <v>0.2793875646479554</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>221.960877</v>
       </c>
       <c r="I8">
-        <v>0.7405425061645015</v>
+        <v>0.7580514618940433</v>
       </c>
       <c r="J8">
-        <v>0.7405425061645016</v>
+        <v>0.7580514618940433</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.30755500000002</v>
+        <v>140.35703</v>
       </c>
       <c r="N8">
-        <v>264.9226650000001</v>
+        <v>421.07109</v>
       </c>
       <c r="O8">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="P8">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="Q8">
-        <v>6533.607451175247</v>
+        <v>10384.58982397177</v>
       </c>
       <c r="R8">
-        <v>58802.46706057722</v>
+        <v>93461.30841574594</v>
       </c>
       <c r="S8">
-        <v>0.1364814911448766</v>
+        <v>0.2044740806726458</v>
       </c>
       <c r="T8">
-        <v>0.1364814911448766</v>
+        <v>0.2044740806726458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>221.960877</v>
       </c>
       <c r="I9">
-        <v>0.7405425061645015</v>
+        <v>0.7580514618940433</v>
       </c>
       <c r="J9">
-        <v>0.7405425061645016</v>
+        <v>0.7580514618940433</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>172.1284333333333</v>
+        <v>178.3381523333333</v>
       </c>
       <c r="N9">
-        <v>516.3852999999999</v>
+        <v>535.014457</v>
       </c>
       <c r="O9">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="P9">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="Q9">
-        <v>12735.25933976756</v>
+        <v>13194.69756482209</v>
       </c>
       <c r="R9">
-        <v>114617.3340579081</v>
+        <v>118752.2780833988</v>
       </c>
       <c r="S9">
-        <v>0.2660287135088817</v>
+        <v>0.2598055099001211</v>
       </c>
       <c r="T9">
-        <v>0.2660287135088817</v>
+        <v>0.2598055099001211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.829029</v>
+        <v>18.786417</v>
       </c>
       <c r="H10">
-        <v>47.487087</v>
+        <v>56.359251</v>
       </c>
       <c r="I10">
-        <v>0.1584342560397782</v>
+        <v>0.1924808245004516</v>
       </c>
       <c r="J10">
-        <v>0.1584342560397782</v>
+        <v>0.1924808245004516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.93702966666667</v>
+        <v>9.873811666666667</v>
       </c>
       <c r="N10">
-        <v>80.81108900000001</v>
+        <v>29.621435</v>
       </c>
       <c r="O10">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="P10">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="Q10">
-        <v>426.3870237675271</v>
+        <v>185.493543349465</v>
       </c>
       <c r="R10">
-        <v>3837.483213907743</v>
+        <v>1669.441890145185</v>
       </c>
       <c r="S10">
-        <v>0.008906861522289694</v>
+        <v>0.003652394787855661</v>
       </c>
       <c r="T10">
-        <v>0.008906861522289696</v>
+        <v>0.00365239478785566</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.829029</v>
+        <v>18.786417</v>
       </c>
       <c r="H11">
-        <v>47.487087</v>
+        <v>56.359251</v>
       </c>
       <c r="I11">
-        <v>0.1584342560397782</v>
+        <v>0.1924808245004516</v>
       </c>
       <c r="J11">
-        <v>0.1584342560397782</v>
+        <v>0.1924808245004516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>575.339554</v>
       </c>
       <c r="O11">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="P11">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="Q11">
-        <v>3035.688828371022</v>
+        <v>3602.856259346006</v>
       </c>
       <c r="R11">
-        <v>27321.1994553392</v>
+        <v>32425.70633411406</v>
       </c>
       <c r="S11">
-        <v>0.06341295234585829</v>
+        <v>0.07094076260237901</v>
       </c>
       <c r="T11">
-        <v>0.06341295234585831</v>
+        <v>0.070940762602379</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.829029</v>
+        <v>18.786417</v>
       </c>
       <c r="H12">
-        <v>47.487087</v>
+        <v>56.359251</v>
       </c>
       <c r="I12">
-        <v>0.1584342560397782</v>
+        <v>0.1924808245004516</v>
       </c>
       <c r="J12">
-        <v>0.1584342560397782</v>
+        <v>0.1924808245004516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.30755500000002</v>
+        <v>140.35703</v>
       </c>
       <c r="N12">
-        <v>264.9226650000001</v>
+        <v>421.07109</v>
       </c>
       <c r="O12">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="P12">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="Q12">
-        <v>1397.822849014095</v>
+        <v>2636.80569446151</v>
       </c>
       <c r="R12">
-        <v>12580.40564112686</v>
+        <v>23731.25125015359</v>
       </c>
       <c r="S12">
-        <v>0.02919932796934518</v>
+        <v>0.05191908678403669</v>
       </c>
       <c r="T12">
-        <v>0.02919932796934519</v>
+        <v>0.05191908678403669</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.829029</v>
+        <v>18.786417</v>
       </c>
       <c r="H13">
-        <v>47.487087</v>
+        <v>56.359251</v>
       </c>
       <c r="I13">
-        <v>0.1584342560397782</v>
+        <v>0.1924808245004516</v>
       </c>
       <c r="J13">
-        <v>0.1584342560397782</v>
+        <v>0.1924808245004516</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.1284333333333</v>
+        <v>178.3381523333333</v>
       </c>
       <c r="N13">
-        <v>516.3852999999999</v>
+        <v>535.014457</v>
       </c>
       <c r="O13">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="P13">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="Q13">
-        <v>2724.625962957899</v>
+        <v>3350.334896743523</v>
       </c>
       <c r="R13">
-        <v>24521.6336666211</v>
+        <v>30153.01407069171</v>
       </c>
       <c r="S13">
-        <v>0.05691511420228502</v>
+        <v>0.06596858032618023</v>
       </c>
       <c r="T13">
-        <v>0.05691511420228505</v>
+        <v>0.06596858032618022</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.075612333333333</v>
+        <v>0.9551306666666667</v>
       </c>
       <c r="H14">
-        <v>3.226837</v>
+        <v>2.865392</v>
       </c>
       <c r="I14">
-        <v>0.01076590609688545</v>
+        <v>0.009786024563686945</v>
       </c>
       <c r="J14">
-        <v>0.01076590609688545</v>
+        <v>0.009786024563686943</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.93702966666667</v>
+        <v>9.873811666666667</v>
       </c>
       <c r="N14">
-        <v>80.81108900000001</v>
+        <v>29.621435</v>
       </c>
       <c r="O14">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="P14">
-        <v>0.05621802850548585</v>
+        <v>0.01897536961063408</v>
       </c>
       <c r="Q14">
-        <v>28.97380133283255</v>
+        <v>9.430780319724445</v>
       </c>
       <c r="R14">
-        <v>260.764211995493</v>
+        <v>84.87702287751999</v>
       </c>
       <c r="S14">
-        <v>0.00060523801584209</v>
+        <v>0.0001856934331147039</v>
       </c>
       <c r="T14">
-        <v>0.0006052380158420901</v>
+        <v>0.0001856934331147038</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.075612333333333</v>
+        <v>0.9551306666666667</v>
       </c>
       <c r="H15">
-        <v>3.226837</v>
+        <v>2.865392</v>
       </c>
       <c r="I15">
-        <v>0.01076590609688545</v>
+        <v>0.009786024563686945</v>
       </c>
       <c r="J15">
-        <v>0.01076590609688545</v>
+        <v>0.009786024563686943</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>575.339554</v>
       </c>
       <c r="O15">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="P15">
-        <v>0.4002477363856031</v>
+        <v>0.368560155467396</v>
       </c>
       <c r="Q15">
-        <v>206.2807733789664</v>
+        <v>183.1748172572409</v>
       </c>
       <c r="R15">
-        <v>1856.526960410698</v>
+        <v>1648.573355315168</v>
       </c>
       <c r="S15">
-        <v>0.004309029545418364</v>
+        <v>0.003606738734600217</v>
       </c>
       <c r="T15">
-        <v>0.004309029545418365</v>
+        <v>0.003606738734600216</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.075612333333333</v>
+        <v>0.9551306666666667</v>
       </c>
       <c r="H16">
-        <v>3.226837</v>
+        <v>2.865392</v>
       </c>
       <c r="I16">
-        <v>0.01076590609688545</v>
+        <v>0.009786024563686945</v>
       </c>
       <c r="J16">
-        <v>0.01076590609688545</v>
+        <v>0.009786024563686943</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.30755500000002</v>
+        <v>140.35703</v>
       </c>
       <c r="N16">
-        <v>264.9226650000001</v>
+        <v>421.07109</v>
       </c>
       <c r="O16">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="P16">
-        <v>0.1842993346212582</v>
+        <v>0.2697364109842271</v>
       </c>
       <c r="Q16">
-        <v>94.98469528451167</v>
+        <v>134.0593036352533</v>
       </c>
       <c r="R16">
-        <v>854.8622575606051</v>
+        <v>1206.53373271728</v>
       </c>
       <c r="S16">
-        <v>0.001984149330250935</v>
+        <v>0.002639647143612403</v>
       </c>
       <c r="T16">
-        <v>0.001984149330250936</v>
+        <v>0.002639647143612403</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.075612333333333</v>
+        <v>0.9551306666666667</v>
       </c>
       <c r="H17">
-        <v>3.226837</v>
+        <v>2.865392</v>
       </c>
       <c r="I17">
-        <v>0.01076590609688545</v>
+        <v>0.009786024563686945</v>
       </c>
       <c r="J17">
-        <v>0.01076590609688545</v>
+        <v>0.009786024563686943</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>172.1284333333333</v>
+        <v>178.3381523333333</v>
       </c>
       <c r="N17">
-        <v>516.3852999999999</v>
+        <v>535.014457</v>
       </c>
       <c r="O17">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="P17">
-        <v>0.3592349004876528</v>
+        <v>0.3427280639377429</v>
       </c>
       <c r="Q17">
-        <v>185.1434658106777</v>
+        <v>170.3362383302382</v>
       </c>
       <c r="R17">
-        <v>1666.2911922961</v>
+        <v>1533.026144972144</v>
       </c>
       <c r="S17">
-        <v>0.003867489205374058</v>
+        <v>0.003353945252359622</v>
       </c>
       <c r="T17">
-        <v>0.003867489205374059</v>
+        <v>0.003353945252359621</v>
       </c>
     </row>
   </sheetData>
